--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.88216498464779</v>
+        <v>0.05565899999999999</v>
       </c>
       <c r="H2">
-        <v>1.88216498464779</v>
+        <v>0.166977</v>
       </c>
       <c r="I2">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="J2">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>20.39487684081712</v>
+        <v>0.7481275912709999</v>
       </c>
       <c r="R2">
-        <v>20.39487684081712</v>
+        <v>6.733148321439</v>
       </c>
       <c r="S2">
-        <v>0.04748418874589706</v>
+        <v>0.001284487327474073</v>
       </c>
       <c r="T2">
-        <v>0.04748418874589706</v>
+        <v>0.001284487327474073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.88216498464779</v>
+        <v>0.05565899999999999</v>
       </c>
       <c r="H3">
-        <v>1.88216498464779</v>
+        <v>0.166977</v>
       </c>
       <c r="I3">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="J3">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>102.6713379641512</v>
+        <v>3.045189326565</v>
       </c>
       <c r="R3">
-        <v>102.6713379641512</v>
+        <v>27.406703939085</v>
       </c>
       <c r="S3">
-        <v>0.2390436200588607</v>
+        <v>0.005228395724700858</v>
       </c>
       <c r="T3">
-        <v>0.2390436200588607</v>
+        <v>0.005228395724700859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.88216498464779</v>
+        <v>0.05565899999999999</v>
       </c>
       <c r="H4">
-        <v>1.88216498464779</v>
+        <v>0.166977</v>
       </c>
       <c r="I4">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="J4">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>104.7782840804954</v>
+        <v>3.544204265489999</v>
       </c>
       <c r="R4">
-        <v>104.7782840804954</v>
+        <v>31.89783838941</v>
       </c>
       <c r="S4">
-        <v>0.2439490984222158</v>
+        <v>0.006085172526877673</v>
       </c>
       <c r="T4">
-        <v>0.2439490984222158</v>
+        <v>0.006085172526877674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.88216498464779</v>
+        <v>0.05565899999999999</v>
       </c>
       <c r="H5">
-        <v>1.88216498464779</v>
+        <v>0.166977</v>
       </c>
       <c r="I5">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="J5">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>30.9255808020385</v>
+        <v>0.9999439166479999</v>
       </c>
       <c r="R5">
-        <v>30.9255808020385</v>
+        <v>8.999495249832</v>
       </c>
       <c r="S5">
-        <v>0.07200220561967621</v>
+        <v>0.00171683988681268</v>
       </c>
       <c r="T5">
-        <v>0.07200220561967621</v>
+        <v>0.00171683988681268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.322741617094935</v>
+        <v>1.907196</v>
       </c>
       <c r="H6">
-        <v>0.322741617094935</v>
+        <v>5.721588000000001</v>
       </c>
       <c r="I6">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="J6">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>3.497183076800837</v>
+        <v>25.635134471724</v>
       </c>
       <c r="R6">
-        <v>3.497183076800837</v>
+        <v>230.716210245516</v>
       </c>
       <c r="S6">
-        <v>0.008142285074525349</v>
+        <v>0.04401388981133764</v>
       </c>
       <c r="T6">
-        <v>0.008142285074525349</v>
+        <v>0.04401388981133765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.322741617094935</v>
+        <v>1.907196</v>
       </c>
       <c r="H7">
-        <v>0.322741617094935</v>
+        <v>5.721588000000001</v>
       </c>
       <c r="I7">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="J7">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>17.60542455849139</v>
+        <v>104.34562070586</v>
       </c>
       <c r="R7">
-        <v>17.60542455849139</v>
+        <v>939.11058635274</v>
       </c>
       <c r="S7">
-        <v>0.04098967153427355</v>
+        <v>0.1791547712421455</v>
       </c>
       <c r="T7">
-        <v>0.04098967153427355</v>
+        <v>0.1791547712421456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.322741617094935</v>
+        <v>1.907196</v>
       </c>
       <c r="H8">
-        <v>0.322741617094935</v>
+        <v>5.721588000000001</v>
       </c>
       <c r="I8">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="J8">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>17.96671020680986</v>
+        <v>121.44472948356</v>
       </c>
       <c r="R8">
-        <v>17.96671020680986</v>
+        <v>1093.00256535204</v>
       </c>
       <c r="S8">
-        <v>0.04183083159862876</v>
+        <v>0.208512849720099</v>
       </c>
       <c r="T8">
-        <v>0.04183083159862876</v>
+        <v>0.2085128497200991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.322741617094935</v>
+        <v>1.907196</v>
       </c>
       <c r="H9">
-        <v>0.322741617094935</v>
+        <v>5.721588000000001</v>
       </c>
       <c r="I9">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="J9">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>5.302920859255982</v>
+        <v>34.263803482912</v>
       </c>
       <c r="R9">
-        <v>5.302920859255982</v>
+        <v>308.374231346208</v>
       </c>
       <c r="S9">
-        <v>0.01234647784101927</v>
+        <v>0.0588287638076429</v>
       </c>
       <c r="T9">
-        <v>0.01234647784101927</v>
+        <v>0.0588287638076429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.919126986334313</v>
+        <v>0.3444803333333333</v>
       </c>
       <c r="H10">
-        <v>0.919126986334313</v>
+        <v>1.033441</v>
       </c>
       <c r="I10">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="J10">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>9.959531624624056</v>
+        <v>4.630252825542999</v>
       </c>
       <c r="R10">
-        <v>9.959531624624056</v>
+        <v>41.67227542988699</v>
       </c>
       <c r="S10">
-        <v>0.02318819001338142</v>
+        <v>0.007949848591076213</v>
       </c>
       <c r="T10">
-        <v>0.02318819001338142</v>
+        <v>0.007949848591076215</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.919126986334313</v>
+        <v>0.3444803333333333</v>
       </c>
       <c r="H11">
-        <v>0.919126986334313</v>
+        <v>1.033441</v>
       </c>
       <c r="I11">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="J11">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>50.13800501849267</v>
+        <v>18.84704781397833</v>
       </c>
       <c r="R11">
-        <v>50.13800501849267</v>
+        <v>169.623430325805</v>
       </c>
       <c r="S11">
-        <v>0.1167333596678613</v>
+        <v>0.03235917824688777</v>
       </c>
       <c r="T11">
-        <v>0.1167333596678613</v>
+        <v>0.03235917824688777</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.919126986334313</v>
+        <v>0.3444803333333333</v>
       </c>
       <c r="H12">
-        <v>0.919126986334313</v>
+        <v>1.033441</v>
       </c>
       <c r="I12">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="J12">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>51.16690049263018</v>
+        <v>21.93551207850333</v>
       </c>
       <c r="R12">
-        <v>51.16690049263018</v>
+        <v>197.41960870653</v>
       </c>
       <c r="S12">
-        <v>0.119128876310353</v>
+        <v>0.03766187427818794</v>
       </c>
       <c r="T12">
-        <v>0.119128876310353</v>
+        <v>0.03766187427818795</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3444803333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.033441</v>
+      </c>
+      <c r="I13">
+        <v>0.08859663238134165</v>
+      </c>
+      <c r="J13">
+        <v>0.08859663238134165</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.96553866666667</v>
+      </c>
+      <c r="N13">
+        <v>53.896616</v>
+      </c>
+      <c r="O13">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="P13">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="Q13">
+        <v>6.188774748406221</v>
+      </c>
+      <c r="R13">
+        <v>55.69897273565599</v>
+      </c>
+      <c r="S13">
+        <v>0.01062573126518971</v>
+      </c>
+      <c r="T13">
+        <v>0.01062573126518971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.580852333333333</v>
+      </c>
+      <c r="H14">
+        <v>4.742557</v>
+      </c>
+      <c r="I14">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="J14">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.441269</v>
+      </c>
+      <c r="N14">
+        <v>40.323807</v>
+      </c>
+      <c r="O14">
+        <v>0.08973082133481231</v>
+      </c>
+      <c r="P14">
+        <v>0.08973082133481232</v>
+      </c>
+      <c r="Q14">
+        <v>21.248661461611</v>
+      </c>
+      <c r="R14">
+        <v>191.237953154499</v>
+      </c>
+      <c r="S14">
+        <v>0.03648259560492437</v>
+      </c>
+      <c r="T14">
+        <v>0.03648259560492437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.580852333333333</v>
+      </c>
+      <c r="H15">
+        <v>4.742557</v>
+      </c>
+      <c r="I15">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="J15">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>54.711535</v>
+      </c>
+      <c r="N15">
+        <v>164.134605</v>
+      </c>
+      <c r="O15">
+        <v>0.3652416280068742</v>
+      </c>
+      <c r="P15">
+        <v>0.3652416280068742</v>
+      </c>
+      <c r="Q15">
+        <v>86.49085776499832</v>
+      </c>
+      <c r="R15">
+        <v>778.4177198849849</v>
+      </c>
+      <c r="S15">
+        <v>0.1484992827931399</v>
+      </c>
+      <c r="T15">
+        <v>0.14849928279314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.919126986334313</v>
-      </c>
-      <c r="H13">
-        <v>0.919126986334313</v>
-      </c>
-      <c r="I13">
-        <v>0.2942116211049033</v>
-      </c>
-      <c r="J13">
-        <v>0.2942116211049033</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.4308554533149</v>
-      </c>
-      <c r="N13">
-        <v>16.4308554533149</v>
-      </c>
-      <c r="O13">
-        <v>0.1195098785740031</v>
-      </c>
-      <c r="P13">
-        <v>0.1195098785740031</v>
-      </c>
-      <c r="Q13">
-        <v>15.10204265570004</v>
-      </c>
-      <c r="R13">
-        <v>15.10204265570004</v>
-      </c>
-      <c r="S13">
-        <v>0.0351611951133076</v>
-      </c>
-      <c r="T13">
-        <v>0.0351611951133076</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.580852333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.742557</v>
+      </c>
+      <c r="I16">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="J16">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>63.67711</v>
+      </c>
+      <c r="N16">
+        <v>191.03133</v>
+      </c>
+      <c r="O16">
+        <v>0.4250937452800914</v>
+      </c>
+      <c r="P16">
+        <v>0.4250937452800915</v>
+      </c>
+      <c r="Q16">
+        <v>100.6641079234233</v>
+      </c>
+      <c r="R16">
+        <v>905.97697131081</v>
+      </c>
+      <c r="S16">
+        <v>0.1728338487549267</v>
+      </c>
+      <c r="T16">
+        <v>0.1728338487549267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.580852333333333</v>
+      </c>
+      <c r="H17">
+        <v>4.742557</v>
+      </c>
+      <c r="I17">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="J17">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.96553866666667</v>
+      </c>
+      <c r="N17">
+        <v>53.896616</v>
+      </c>
+      <c r="O17">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="P17">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="Q17">
+        <v>28.40086372079022</v>
+      </c>
+      <c r="R17">
+        <v>255.607773487112</v>
+      </c>
+      <c r="S17">
+        <v>0.0487624704185767</v>
+      </c>
+      <c r="T17">
+        <v>0.04876247041857671</v>
       </c>
     </row>
   </sheetData>
